--- a/medicine/Sexualité et sexologie/XXL_(chaîne_de_télévision)/XXL_(chaîne_de_télévision).xlsx
+++ b/medicine/Sexualité et sexologie/XXL_(chaîne_de_télévision)/XXL_(chaîne_de_télévision).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>XXL_(cha%C3%AEne_de_t%C3%A9l%C3%A9vision)</t>
+          <t>XXL_(chaîne_de_télévision)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">XXL est une chaîne de télévision franco-néerlandaise qui fait partie du groupe Thematic Netherlands BV.
 Cette chaîne diffuse ses programmes toutes les nuits de 22 h 30 à 5 h du matin.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>XXL_(cha%C3%AEne_de_t%C3%A9l%C3%A9vision)</t>
+          <t>XXL_(chaîne_de_télévision)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire de la chaîne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en mars 1996 à destination « de l'homme moderne », elle était diffusée à l'origine exclusivement sur AB Sat, diffusait en journée (de 6 h à 22 h) des sports extrêmes et fut la première chaîne française, hors paiement à la séance, à diffuser de la pornographie tous les soirs, puis a été amputée très rapidement de sa diffusion en journée pour partager le canal 5 d'AB Sat avec AB Moteurs puis en 2004 avec Zik'. Très vite elle est devenue disponible moyennant un abonnement sur l'ensemble des réseaux des câblo-opérateurs (en Suisse avec Naxoo) et sur tous les bouquets numériques de télédiffusion : TPS, BIS Télévisions, Orange, TéléSAT et Canal+.
 XXL démarre sa programmation à 22 heures 30 à partir de 1999 avec soit un film érotique, soit des talk-shows ou magazines parfois animés par d'anciennes actrices de films pornographiques (interdit aux moins de 16 ans). À partir de minuit elle diffuse deux films pornographiques (interdits aux moins de 18 ans) dont le deuxième est une rediffusion de la semaine précédente. Elle diffuse un film gay tous les mardis à minuit. Et un film amateur tous les mercredis à minuit. De 3 h 05 à 5 h du matin la chaîne diffuse une émission de télévision érotique (interdite aux moins de 16 ans). Sa programmation s'achève à 5 h du matin.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>XXL_(cha%C3%AEne_de_t%C3%A9l%C3%A9vision)</t>
+          <t>XXL_(chaîne_de_télévision)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Identité visuelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>XXL_(cha%C3%AEne_de_t%C3%A9l%C3%A9vision)</t>
+          <t>XXL_(chaîne_de_télévision)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Dirigeants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Président : 
 Jean-Michel Fava
